--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7439432D-C18A-418D-B12A-443A24EF18FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90A7C9-2A43-4647-B563-4A1E2849BAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>testname</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>98.0</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -502,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -574,7 +577,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
@@ -593,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
